--- a/cv_11/data/cv_11.xlsx
+++ b/cv_11/data/cv_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9244D5-C71D-C847-B384-0E6D0B608CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109C0748-6A16-194C-8CDC-9AD59663CFD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7480" yWindow="22820" windowWidth="28040" windowHeight="17360" xr2:uid="{1537F752-38CB-AC46-B2B8-7C5CC209BEC2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">sestupná hrana </t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>BURST</t>
+  </si>
+  <si>
+    <t>587 mV</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655AFE79-143D-BA45-A834-9B0AC9D8B7F6}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,96 +439,70 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
